--- a/xlsx/Hyundai_intext.xlsx
+++ b/xlsx/Hyundai_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="330">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="327">
   <si>
     <t>Hyundai</t>
   </si>
@@ -29,13 +29,13 @@
     <t>上市公司</t>
   </si>
   <si>
-    <t>政策_政策_混合動力車輛_Hyundai</t>
+    <t>政策_政策_混合动力车辆_Hyundai</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E7%A5%A8%E4%BB%A3%E8%99%9F</t>
   </si>
   <si>
-    <t>股票代號</t>
+    <t>股票代号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A9%E5%9B%BD%E4%BA%A4%E6%98%93%E6%89%80</t>
@@ -53,7 +53,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%89%B5%E8%BE%A6%E4%BA%BA</t>
   </si>
   <si>
-    <t>創辦人</t>
+    <t>创办人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%83%91%E5%91%A8%E6%B0%B8</t>
@@ -65,7 +65,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%84%AD%E5%A4%A2%E4%B9%9D</t>
   </si>
   <si>
-    <t>鄭夢九</t>
+    <t>郑梦九</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%A9%E6%B0%91%E5%9B%BD</t>
@@ -89,7 +89,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%9F%E6%A5%AD%E9%A1%8D</t>
   </si>
   <si>
-    <t>營業額</t>
+    <t>营业额</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%85%83</t>
@@ -107,13 +107,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E7%94%A2</t>
   </si>
   <si>
-    <t>資產</t>
+    <t>资产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%A1%E6%9D%B1%E6%AC%8A%E7%9B%8A</t>
   </si>
   <si>
-    <t>股東權益</t>
+    <t>股东权益</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B0%9A%E6%96%87</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%AE%AE%E6%BC%A2%E5%AD%97</t>
   </si>
   <si>
-    <t>朝鮮漢字</t>
+    <t>朝鲜汉字</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%87%E5%8C%96%E8%A7%82%E5%85%89%E9%83%A82000%E5%B9%B4%E5%BC%8F</t>
@@ -161,13 +161,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E5%BB%A3%E5%9F%9F%E5%B8%82</t>
   </si>
   <si>
-    <t>蔚山廣域市</t>
+    <t>蔚山广域市</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/K1%E4%B8%BB%E6%88%B0%E5%9D%A6%E5%85%8B</t>
   </si>
   <si>
-    <t>K1主戰坦克</t>
+    <t>K1主战坦克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E6%9D%AF%E8%B6%B3%E7%90%83%E8%B5%9B</t>
@@ -179,7 +179,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E6%B4%B2%E5%86%A0%E8%BB%8D%E8%81%AF%E8%B3%BD</t>
   </si>
   <si>
-    <t>歐洲冠軍聯賽</t>
+    <t>欧洲冠军联赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E4%BA%9A%E6%B1%BD%E8%BD%A6</t>
@@ -191,7 +191,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E7%B6%B2%E7%90%83%E5%85%AC%E9%96%8B%E8%B3%BD</t>
   </si>
   <si>
-    <t>澳洲網球公開賽</t>
+    <t>澳洲网球公开赛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%A7%E6%B4%B2%E6%9D%AF</t>
@@ -203,21 +203,18 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9F%93%E5%9C%8B%E8%81%B7%E6%A3%92</t>
   </si>
   <si>
-    <t>韓國職棒</t>
+    <t>韩国职棒</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%B7%E4%BA%9E%E8%99%8E</t>
   </si>
   <si>
-    <t>起亞虎</t>
+    <t>起亚虎</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E5%B9%BF%E5%9F%9F%E5%B8%82</t>
   </si>
   <si>
-    <t>蔚山广域市</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%8F%E7%89%B9%E6%B1%BD%E8%BD%A6</t>
   </si>
   <si>
@@ -329,7 +326,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%BD%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>三陽工業</t>
+    <t>三阳工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E4%BA%AC%E7%8E%B0%E4%BB%A3%E6%B1%BD%E8%BD%A6%E6%9C%89%E9%99%90%E5%85%AC%E5%8F%B8</t>
@@ -353,7 +350,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BD%B7%E5%B7%A5</t>
   </si>
   <si>
-    <t>罷工</t>
+    <t>罢工</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E6%B1%BD%E8%BD%A6%E9%9B%86%E5%9B%A2</t>
@@ -377,37 +374,37 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E7%88%BE%E5%9C%B0%E5%A4%AB</t>
   </si>
   <si>
-    <t>馬爾地夫</t>
+    <t>马尔地夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E9%81%94</t>
   </si>
   <si>
-    <t>卡達</t>
+    <t>卡达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%B2%E5%BE%8B%E8%B3%93</t>
   </si>
   <si>
-    <t>菲律賓</t>
+    <t>菲律宾</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E9%A6%AC%E5%88%A9%E4%BA%9E</t>
   </si>
   <si>
-    <t>索馬利亞</t>
+    <t>索马利亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A0%94%E7%99%BC</t>
   </si>
   <si>
-    <t>研發</t>
+    <t>研发</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E9%80%94%E8%83%9C</t>
@@ -431,15 +428,12 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A3%BD%E9%80%A0%E5%95%86</t>
   </si>
   <si>
-    <t>製造商</t>
+    <t>制造商</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
   </si>
   <si>
@@ -485,7 +479,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E6%AD%B7%E5%B1%B1%E5%A4%A7%E4%B8%B9%E5%B0%BC%E5%A3%AB</t>
   </si>
   <si>
-    <t>亞歷山大丹尼士</t>
+    <t>亚历山大丹尼士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9F%8F%E6%96%AF%E6%95%A6</t>
@@ -503,7 +497,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%90%8A%E7%89%B9%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>萊特巴士</t>
+    <t>莱特巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD</t>
@@ -527,25 +521,25 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E5%88%A9%E6%99%82</t>
   </si>
   <si>
-    <t>比利時</t>
+    <t>比利时</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%83%E8%83%A1%E7%88%BE%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>范胡爾公司</t>
+    <t>范胡尔公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD</t>
   </si>
   <si>
-    <t>荷蘭</t>
+    <t>荷兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/VDL%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>VDL集團</t>
+    <t>VDL集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E5%85%8B%E9%9C%8D%E5%A4%AB</t>
@@ -569,7 +563,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E5%9C%8B</t>
   </si>
   <si>
-    <t>德國</t>
+    <t>德国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E4%BC%97%E9%9B%86%E5%9B%A2</t>
@@ -587,7 +581,7 @@
     <t>https://zh.wikipedia.org/wiki/MAN%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>MAN集團</t>
+    <t>MAN集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E5%A5%A5%E6%99%AE%E5%85%B0</t>
@@ -605,7 +599,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%B3%BD%E5%BE%B7%E6%96%AF-%E8%B3%93%E5%A3%AB</t>
   </si>
   <si>
-    <t>梅賽德斯-賓士</t>
+    <t>梅赛德斯-宾士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E8%8F%B1%E6%89%B6%E6%A1%91%E5%8D%A1%E5%AE%A2%E8%BD%A6</t>
@@ -623,13 +617,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%A9%E5%A4%A7%E5%88%A9</t>
   </si>
   <si>
-    <t>義大利</t>
+    <t>义大利</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%9C%B8_(%E6%B1%BD%E8%BB%8A%E5%85%AC%E5%8F%B8)</t>
   </si>
   <si>
-    <t>歐霸 (汽車公司)</t>
+    <t>欧霸 (汽车公司)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E8%90%A8%E5%AE%A2%E8%BD%A6</t>
@@ -647,7 +641,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E8%98%AD</t>
   </si>
   <si>
-    <t>波蘭</t>
+    <t>波兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%A2%E6%8B%89%E7%91%9E%E6%96%AF%E5%AE%A2%E8%BD%A6</t>
@@ -665,13 +659,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E5%87%B1%E6%B4%9B%E6%96%AF%E5%B7%B4%E5%A3%AB</t>
   </si>
   <si>
-    <t>伊凱洛斯巴士</t>
+    <t>伊凯洛斯巴士</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E7%88%BE%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>塞爾維亞</t>
+    <t>塞尔维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -689,27 +683,24 @@
     <t>https://zh.wikipedia.org/wiki/UD%E5%8D%A1%E8%BB%8A</t>
   </si>
   <si>
-    <t>UD卡車</t>
+    <t>UD卡车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B0%94%E5%9F%BA%E6%B1%BD%E8%BD%A6%E5%8E%82</t>
   </si>
   <si>
@@ -719,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%A1%94%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>塔塔汽車</t>
+    <t>塔塔汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%8D%8E%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -737,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AE%87%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>宇通客車</t>
+    <t>宇通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%87%91%E9%BE%99</t>
@@ -803,13 +794,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E9%80%9A%E5%AE%A2%E8%BB%8A</t>
   </si>
   <si>
-    <t>中通客車</t>
+    <t>中通客车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%B9%B4%E6%B1%BD%E8%BB%8A</t>
   </si>
   <si>
-    <t>青年汽車</t>
+    <t>青年汽车</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E6%B7%AE%E6%B1%BD%E8%BD%A6</t>
@@ -857,7 +848,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E6%B4%B2%E9%BE%8D</t>
   </si>
   <si>
-    <t>五洲龍</t>
+    <t>五洲龙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AF%94%E4%BA%9A%E8%BF%AA</t>
@@ -929,19 +920,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BA%94%E5%8D%81%E9%88%B4</t>
   </si>
   <si>
-    <t>五十鈴</t>
+    <t>五十铃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E5%BE%B7%E5%8B%95%E8%83%BD%E7%A7%91%E6%8A%80</t>
   </si>
   <si>
-    <t>華德動能科技</t>
+    <t>华德动能科技</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E5%A4%A7%E5%88%A9%E4%BA%9A</t>
@@ -953,13 +944,13 @@
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%8F%BE%E4%BB%A3</t>
   </si>
   <si>
-    <t>Template talk-現代</t>
+    <t>Template talk-现代</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E9%9B%86%E5%9C%98</t>
   </si>
   <si>
-    <t>現代集團</t>
+    <t>现代集团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E8%B5%B7%E4%BA%9A%E6%B1%BD%E8%BD%A6%E9%9B%86%E5%9B%A2</t>
@@ -971,19 +962,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3Rotem</t>
   </si>
   <si>
-    <t>現代Rotem</t>
+    <t>现代Rotem</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%8C%97%E7%8F%BE%E4%BB%A3%E6%B1%BD%E8%BB%8A%E8%B6%B3%E7%90%83%E4%BF%B1%E6%A8%82%E9%83%A8</t>
   </si>
   <si>
-    <t>全北現代汽車足球俱樂部</t>
+    <t>全北现代汽车足球俱乐部</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%9A%E5%B1%B1%E7%8F%BE%E4%BB%A3%E5%A4%AA%E9%99%BD%E7%A5%9E</t>
   </si>
   <si>
-    <t>蔚山現代太陽神</t>
+    <t>蔚山现代太阳神</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8E%B0%E4%BB%A3%E9%87%8D%E5%B7%A5%E4%B8%9A</t>
@@ -2303,7 +2294,7 @@
         <v>65</v>
       </c>
       <c r="F33" t="s">
-        <v>66</v>
+        <v>48</v>
       </c>
       <c r="G33" t="n">
         <v>5</v>
@@ -2329,10 +2320,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>5</v>
@@ -2358,10 +2349,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2387,10 +2378,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>70</v>
+      </c>
+      <c r="F36" t="s">
         <v>71</v>
-      </c>
-      <c r="F36" t="s">
-        <v>72</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2416,10 +2407,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>72</v>
+      </c>
+      <c r="F37" t="s">
         <v>73</v>
-      </c>
-      <c r="F37" t="s">
-        <v>74</v>
       </c>
       <c r="G37" t="n">
         <v>5</v>
@@ -2445,10 +2436,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>74</v>
+      </c>
+      <c r="F38" t="s">
         <v>75</v>
-      </c>
-      <c r="F38" t="s">
-        <v>76</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2474,10 +2465,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>76</v>
+      </c>
+      <c r="F39" t="s">
         <v>77</v>
-      </c>
-      <c r="F39" t="s">
-        <v>78</v>
       </c>
       <c r="G39" t="n">
         <v>3</v>
@@ -2503,10 +2494,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>78</v>
+      </c>
+      <c r="F40" t="s">
         <v>79</v>
-      </c>
-      <c r="F40" t="s">
-        <v>80</v>
       </c>
       <c r="G40" t="n">
         <v>3</v>
@@ -2532,10 +2523,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>80</v>
+      </c>
+      <c r="F41" t="s">
         <v>81</v>
-      </c>
-      <c r="F41" t="s">
-        <v>82</v>
       </c>
       <c r="G41" t="n">
         <v>7</v>
@@ -2561,10 +2552,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>82</v>
+      </c>
+      <c r="F42" t="s">
         <v>83</v>
-      </c>
-      <c r="F42" t="s">
-        <v>84</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2590,10 +2581,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>84</v>
+      </c>
+      <c r="F43" t="s">
         <v>85</v>
-      </c>
-      <c r="F43" t="s">
-        <v>86</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2619,10 +2610,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>86</v>
+      </c>
+      <c r="F44" t="s">
         <v>87</v>
-      </c>
-      <c r="F44" t="s">
-        <v>88</v>
       </c>
       <c r="G44" t="n">
         <v>3</v>
@@ -2648,10 +2639,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>88</v>
+      </c>
+      <c r="F45" t="s">
         <v>89</v>
-      </c>
-      <c r="F45" t="s">
-        <v>90</v>
       </c>
       <c r="G45" t="n">
         <v>9</v>
@@ -2677,10 +2668,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
+        <v>90</v>
+      </c>
+      <c r="F46" t="s">
         <v>91</v>
-      </c>
-      <c r="F46" t="s">
-        <v>92</v>
       </c>
       <c r="G46" t="n">
         <v>4</v>
@@ -2706,10 +2697,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
+        <v>92</v>
+      </c>
+      <c r="F47" t="s">
         <v>93</v>
-      </c>
-      <c r="F47" t="s">
-        <v>94</v>
       </c>
       <c r="G47" t="n">
         <v>4</v>
@@ -2764,10 +2755,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2793,10 +2784,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2822,10 +2813,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2851,10 +2842,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2880,10 +2871,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2909,10 +2900,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>1</v>
@@ -2938,10 +2929,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2967,10 +2958,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2996,10 +2987,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -3025,10 +3016,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>6</v>
@@ -3054,10 +3045,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3083,10 +3074,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -3112,10 +3103,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -3141,10 +3132,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3170,10 +3161,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -3199,10 +3190,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3228,10 +3219,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3257,10 +3248,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>5</v>
@@ -3286,10 +3277,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>108</v>
+      </c>
+      <c r="F67" t="s">
         <v>109</v>
-      </c>
-      <c r="F67" t="s">
-        <v>110</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3315,10 +3306,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68" t="s">
         <v>131</v>
-      </c>
-      <c r="F68" t="s">
-        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -3344,10 +3335,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>132</v>
+      </c>
+      <c r="F69" t="s">
         <v>133</v>
-      </c>
-      <c r="F69" t="s">
-        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3373,10 +3364,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>134</v>
+      </c>
+      <c r="F70" t="s">
         <v>135</v>
-      </c>
-      <c r="F70" t="s">
-        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>3</v>
@@ -3402,10 +3393,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>136</v>
+      </c>
+      <c r="F71" t="s">
         <v>137</v>
-      </c>
-      <c r="F71" t="s">
-        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>4</v>
@@ -3431,10 +3422,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>81</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3460,10 +3451,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>66</v>
+      </c>
+      <c r="F73" t="s">
         <v>67</v>
-      </c>
-      <c r="F73" t="s">
-        <v>68</v>
       </c>
       <c r="G73" t="n">
         <v>6</v>
@@ -3489,10 +3480,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3518,10 +3509,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3547,10 +3538,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3576,10 +3567,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3605,10 +3596,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3634,10 +3625,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3663,10 +3654,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3692,10 +3683,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3721,10 +3712,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3750,10 +3741,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3779,10 +3770,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3808,10 +3799,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3837,10 +3828,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3866,10 +3857,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -3895,10 +3886,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3924,10 +3915,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3953,10 +3944,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F90" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -3982,10 +3973,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F91" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4011,10 +4002,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F92" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4040,10 +4031,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F93" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4069,10 +4060,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F94" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4098,10 +4089,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F95" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -4127,10 +4118,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F96" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4156,10 +4147,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F97" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4185,10 +4176,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F98" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4214,10 +4205,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F99" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4243,10 +4234,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4272,10 +4263,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F101" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G101" t="n">
         <v>1</v>
@@ -4301,10 +4292,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4330,10 +4321,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4359,10 +4350,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4388,10 +4379,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4417,10 +4408,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4446,10 +4437,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4475,10 +4466,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4504,10 +4495,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4533,10 +4524,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4562,10 +4553,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4591,10 +4582,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4620,10 +4611,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4649,10 +4640,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4678,10 +4669,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4707,10 +4698,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4736,10 +4727,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4765,10 +4756,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>230</v>
+        <v>97</v>
       </c>
       <c r="G118" t="n">
         <v>2</v>
@@ -4794,10 +4785,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -4823,10 +4814,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4852,10 +4843,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>19</v>
@@ -4881,10 +4872,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4910,10 +4901,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="F123" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4939,10 +4930,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="F124" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G124" t="n">
         <v>4</v>
@@ -4968,10 +4959,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="F125" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4997,10 +4988,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="F126" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5026,10 +5017,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="F127" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5055,10 +5046,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="F128" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5084,10 +5075,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F129" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5113,10 +5104,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F130" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5142,10 +5133,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5171,10 +5162,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>1</v>
@@ -5200,10 +5191,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5229,10 +5220,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5258,10 +5249,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5287,10 +5278,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F136" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5316,10 +5307,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F137" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G137" t="n">
         <v>3</v>
@@ -5345,10 +5336,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5374,10 +5365,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -5403,10 +5394,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F140" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5432,10 +5423,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="F141" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5461,10 +5452,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="F142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="G142" t="n">
         <v>1</v>
@@ -5490,10 +5481,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="F143" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5519,10 +5510,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="F144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5548,10 +5539,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="F145" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5577,10 +5568,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F146" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5606,10 +5597,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F147" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -5635,10 +5626,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F148" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5664,10 +5655,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F149" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -5693,10 +5684,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F150" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5722,10 +5713,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F151" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5751,10 +5742,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="F152" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5780,10 +5771,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="F153" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="G153" t="n">
         <v>3</v>
@@ -5809,10 +5800,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="F154" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="G154" t="n">
         <v>3</v>
@@ -5838,10 +5829,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="F155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -5867,10 +5858,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="F156" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -5896,10 +5887,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="F157" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -5925,10 +5916,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="F158" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -5954,10 +5945,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="F159" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -5983,10 +5974,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="F160" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G160" t="n">
         <v>4</v>
@@ -6012,10 +6003,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="F161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6041,10 +6032,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="F162" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6070,10 +6061,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="F163" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6099,10 +6090,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="F164" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G164" t="n">
         <v>1</v>
@@ -6128,10 +6119,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="F165" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6157,10 +6148,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F166" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="G166" t="n">
         <v>1</v>
@@ -6186,10 +6177,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F167" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6215,10 +6206,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F168" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="G168" t="n">
         <v>2</v>
@@ -6244,10 +6235,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F169" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
